--- a/measurement_files/Fig5_6/Measurements details.xlsx
+++ b/measurement_files/Fig5_6/Measurements details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/jehad_abed_mail_utoronto_ca/Documents/UofT/Research/Publications/Opentrons_paper/measurement_files/Fig5_6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/jehad_abed_mail_utoronto_ca/Documents/UofT/Research/Publications/Opentrons_paper/AMPERE_repo/measurement_files/Fig5_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_F25DC773A252ABDACC10483701DA4E585BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A84EE8A-FE9E-0E4B-B41B-135776A56CE2}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_F25DC773A252ABDACC10483701DA4E585BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C0D95F-7765-2041-89F6-FBD59C8D7612}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="2320" windowWidth="36000" windowHeight="21460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-1460" windowWidth="21600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,12 +767,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -795,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -818,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -841,7 +864,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -864,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -887,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -910,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -933,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -956,10 +979,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -979,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1002,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1025,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1">
         <v>40</v>
@@ -1048,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -1071,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -1091,13 +1114,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>30</v>
@@ -1109,7 +1132,30 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -1140,10 +1186,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
@@ -1163,10 +1209,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <v>30</v>
@@ -1186,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -1209,10 +1255,10 @@
         <v>16</v>
       </c>
       <c r="B35" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>30</v>
@@ -1232,10 +1278,10 @@
         <v>16</v>
       </c>
       <c r="B36" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
         <v>30</v>
@@ -1255,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1278,10 +1324,10 @@
         <v>16</v>
       </c>
       <c r="B38" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>30</v>
@@ -1301,10 +1347,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>30</v>
@@ -1324,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
@@ -1344,48 +1390,74 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
       </c>
       <c r="F41" s="1">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1">
         <v>40</v>
       </c>
       <c r="F42" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>40</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,10 +1465,10 @@
         <v>17</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>20</v>
@@ -1419,10 +1491,10 @@
         <v>17</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>20</v>
@@ -1442,10 +1514,10 @@
         <v>17</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>20</v>
@@ -1465,10 +1537,10 @@
         <v>17</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <v>20</v>
@@ -1478,9 +1550,6 @@
       </c>
       <c r="F47" s="1">
         <v>10</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
@@ -1491,10 +1560,10 @@
         <v>17</v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <v>20</v>
@@ -1514,10 +1583,10 @@
         <v>17</v>
       </c>
       <c r="B49" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
         <v>20</v>
@@ -1537,10 +1606,10 @@
         <v>17</v>
       </c>
       <c r="B50" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1">
         <v>20</v>
@@ -1560,10 +1629,10 @@
         <v>17</v>
       </c>
       <c r="B51" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
         <v>20</v>
@@ -1583,10 +1652,10 @@
         <v>17</v>
       </c>
       <c r="B52" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1">
         <v>20</v>
@@ -1606,10 +1675,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
         <v>20</v>
@@ -1618,7 +1687,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
         <v>23</v>
@@ -1629,10 +1698,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>20</v>
@@ -1641,7 +1710,7 @@
         <v>40</v>
       </c>
       <c r="F54" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
@@ -1652,10 +1721,10 @@
         <v>17</v>
       </c>
       <c r="B55" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>20</v>
@@ -1664,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
@@ -1672,13 +1741,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>20</v>
@@ -1690,18 +1759,18 @@
         <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
         <v>20</v>
@@ -1713,18 +1782,18 @@
         <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>20</v>
@@ -1736,7 +1805,30 @@
         <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1">
+        <v>40</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1744,10 +1836,10 @@
         <v>18</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
         <v>20</v>
@@ -1767,10 +1859,10 @@
         <v>18</v>
       </c>
       <c r="B61" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1">
         <v>20</v>
@@ -1790,10 +1882,10 @@
         <v>18</v>
       </c>
       <c r="B62" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
         <v>20</v>
@@ -1813,10 +1905,10 @@
         <v>18</v>
       </c>
       <c r="B63" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -1836,10 +1928,10 @@
         <v>18</v>
       </c>
       <c r="B64" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>20</v>
@@ -1859,10 +1951,10 @@
         <v>18</v>
       </c>
       <c r="B65" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
         <v>20</v>
@@ -1871,7 +1963,7 @@
         <v>40</v>
       </c>
       <c r="F65" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s">
         <v>24</v>
@@ -1882,10 +1974,10 @@
         <v>18</v>
       </c>
       <c r="B66" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <v>20</v>
@@ -1894,7 +1986,7 @@
         <v>40</v>
       </c>
       <c r="F66" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
         <v>24</v>
@@ -1905,10 +1997,10 @@
         <v>18</v>
       </c>
       <c r="B67" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
         <v>20</v>
@@ -1917,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="F67" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s">
         <v>24</v>
@@ -1928,10 +2020,10 @@
         <v>18</v>
       </c>
       <c r="B68" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>20</v>
@@ -1940,7 +2032,7 @@
         <v>40</v>
       </c>
       <c r="F68" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s">
         <v>24</v>
@@ -1951,10 +2043,10 @@
         <v>18</v>
       </c>
       <c r="B69" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>20</v>
@@ -1974,10 +2066,10 @@
         <v>18</v>
       </c>
       <c r="B70" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>20</v>
@@ -1994,13 +2086,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>20</v>
@@ -2012,18 +2104,18 @@
         <v>40</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>20</v>
@@ -2035,18 +2127,18 @@
         <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1">
         <v>20</v>
@@ -2058,18 +2150,18 @@
         <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -2081,7 +2173,30 @@
         <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>20</v>
+      </c>
+      <c r="E75" s="1">
+        <v>40</v>
+      </c>
+      <c r="F75" s="1">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2089,10 +2204,10 @@
         <v>19</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>20</v>
@@ -2112,19 +2227,19 @@
         <v>19</v>
       </c>
       <c r="B77" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>20</v>
       </c>
       <c r="E77" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F77" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
         <v>25</v>
@@ -2135,19 +2250,19 @@
         <v>19</v>
       </c>
       <c r="B78" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>20</v>
       </c>
       <c r="E78" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F78" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
@@ -2158,19 +2273,19 @@
         <v>19</v>
       </c>
       <c r="B79" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>20</v>
       </c>
       <c r="E79" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F79" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
         <v>25</v>
@@ -2181,19 +2296,19 @@
         <v>19</v>
       </c>
       <c r="B80" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
         <v>20</v>
       </c>
       <c r="E80" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F80" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
         <v>25</v>
@@ -2204,19 +2319,19 @@
         <v>19</v>
       </c>
       <c r="B81" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
         <v>20</v>
       </c>
       <c r="E81" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F81" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
         <v>25</v>
@@ -2227,10 +2342,10 @@
         <v>19</v>
       </c>
       <c r="B82" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>20</v>
@@ -2250,10 +2365,10 @@
         <v>19</v>
       </c>
       <c r="B83" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
         <v>20</v>
@@ -2273,10 +2388,10 @@
         <v>19</v>
       </c>
       <c r="B84" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
         <v>20</v>
@@ -2296,10 +2411,10 @@
         <v>19</v>
       </c>
       <c r="B85" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
         <v>20</v>
@@ -2316,13 +2431,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B86" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" s="1">
         <v>20</v>
@@ -2334,18 +2449,18 @@
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1">
         <v>20</v>
@@ -2357,18 +2472,18 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B88" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" s="1">
         <v>20</v>
@@ -2380,53 +2495,76 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B89" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
         <v>20</v>
       </c>
       <c r="E89" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F89" s="1">
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
         <v>20</v>
       </c>
       <c r="E90" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F90" s="1">
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="1">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1">
+        <v>80</v>
+      </c>
+      <c r="F91" s="1">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -2434,16 +2572,16 @@
         <v>20</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1">
         <v>20</v>
       </c>
       <c r="E92" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F92" s="1">
         <v>20</v>
@@ -2457,16 +2595,16 @@
         <v>20</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1">
         <v>20</v>
       </c>
       <c r="E93" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F93" s="1">
         <v>20</v>
@@ -2480,16 +2618,16 @@
         <v>20</v>
       </c>
       <c r="B94" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
         <v>20</v>
       </c>
       <c r="E94" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F94" s="1">
         <v>20</v>
@@ -2503,10 +2641,10 @@
         <v>20</v>
       </c>
       <c r="B95" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1">
         <v>20</v>
@@ -2526,10 +2664,10 @@
         <v>20</v>
       </c>
       <c r="B96" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
         <v>20</v>
@@ -2549,10 +2687,10 @@
         <v>20</v>
       </c>
       <c r="B97" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
         <v>20</v>
@@ -2572,10 +2710,10 @@
         <v>20</v>
       </c>
       <c r="B98" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>20</v>
@@ -2595,10 +2733,10 @@
         <v>20</v>
       </c>
       <c r="B99" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1">
         <v>20</v>
@@ -2618,10 +2756,10 @@
         <v>20</v>
       </c>
       <c r="B100" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1">
         <v>20</v>
@@ -2633,144 +2771,6 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="1">
-        <v>10</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1">
-        <v>20</v>
-      </c>
-      <c r="E101" s="1">
-        <v>80</v>
-      </c>
-      <c r="F101" s="1">
-        <v>20</v>
-      </c>
-      <c r="H101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>20</v>
-      </c>
-      <c r="B102" s="1">
-        <v>11</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1">
-        <v>20</v>
-      </c>
-      <c r="E102" s="1">
-        <v>80</v>
-      </c>
-      <c r="F102" s="1">
-        <v>20</v>
-      </c>
-      <c r="H102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="1">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1">
-        <v>20</v>
-      </c>
-      <c r="E103" s="1">
-        <v>80</v>
-      </c>
-      <c r="F103" s="1">
-        <v>20</v>
-      </c>
-      <c r="H103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="1">
-        <v>13</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1">
-        <v>20</v>
-      </c>
-      <c r="E104" s="1">
-        <v>80</v>
-      </c>
-      <c r="F104" s="1">
-        <v>20</v>
-      </c>
-      <c r="H104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" s="1">
-        <v>14</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1">
-        <v>20</v>
-      </c>
-      <c r="E105" s="1">
-        <v>80</v>
-      </c>
-      <c r="F105" s="1">
-        <v>20</v>
-      </c>
-      <c r="H105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="1">
-        <v>15</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1">
-        <v>20</v>
-      </c>
-      <c r="E106" s="1">
-        <v>80</v>
-      </c>
-      <c r="F106" s="1">
-        <v>20</v>
-      </c>
-      <c r="H106" t="s">
         <v>26</v>
       </c>
     </row>

--- a/measurement_files/Fig5_6/Measurements details.xlsx
+++ b/measurement_files/Fig5_6/Measurements details.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/jehad_abed_mail_utoronto_ca/Documents/UofT/Research/Publications/Opentrons_paper/AMPERE_repo/measurement_files/Fig5_6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abedj/Desktop/voltage_profile_stability_testing/measurement_files/Fig5_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_F25DC773A252ABDACC10483701DA4E585BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C0D95F-7765-2041-89F6-FBD59C8D7612}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF3E9FF-E6E4-3541-8D2E-1A0C74808D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-1460" windowWidth="21600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9560" yWindow="2120" windowWidth="24400" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$100</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="28">
   <si>
     <t>IrO2</t>
   </si>
@@ -42,28 +45,10 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>Ethanol concentration %</t>
-  </si>
-  <si>
-    <t>Nafion / mL.L-1</t>
-  </si>
-  <si>
-    <t>catalyst concentration / L.mL-1</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
     <t>Fig number</t>
-  </si>
-  <si>
-    <t>Fig. 5 all</t>
-  </si>
-  <si>
-    <t>Fig. 6 all</t>
   </si>
   <si>
     <t>subfolder</t>
@@ -96,22 +81,37 @@
     <t>Fig. 6a</t>
   </si>
   <si>
-    <t>Fig 5b</t>
+    <t>sample number</t>
   </si>
   <si>
-    <t>Fig6b</t>
+    <t>repeated</t>
   </si>
   <si>
-    <t>Fig5b</t>
+    <t>Fig. 5b</t>
   </si>
   <si>
-    <t>Fig 6c</t>
+    <t>Fig. 6b</t>
   </si>
   <si>
-    <t>Fig 5c</t>
+    <t>Fig. 6c</t>
   </si>
   <si>
-    <t>cell leak</t>
+    <t>Fig. 5c</t>
+  </si>
+  <si>
+    <t>Fig. 5a 5b 5c</t>
+  </si>
+  <si>
+    <t>Fig. 6a 6b 6c</t>
+  </si>
+  <si>
+    <t>Catalyst concentration [mg/mL]</t>
+  </si>
+  <si>
+    <t>Nafion concentration [uL/mL]</t>
+  </si>
+  <si>
+    <t>Ethanol concentration [v/v%]</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
     <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -467,42 +467,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>40</v>
@@ -511,21 +511,21 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
@@ -534,21 +534,21 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -557,12 +557,12 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -580,12 +580,12 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -603,12 +603,12 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -626,12 +626,12 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>40</v>
@@ -649,12 +649,12 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -663,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>40</v>
@@ -672,12 +672,12 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -695,12 +695,12 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -718,12 +718,12 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -741,12 +741,12 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -764,21 +764,21 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <v>40</v>
@@ -787,21 +787,21 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
         <v>40</v>
@@ -810,21 +810,21 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1">
         <v>40</v>
@@ -833,12 +833,12 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -856,12 +856,12 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -879,12 +879,12 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -902,21 +902,21 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>40</v>
@@ -925,21 +925,21 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>40</v>
@@ -948,21 +948,21 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>40</v>
@@ -971,35 +971,35 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
         <v>15</v>
-      </c>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1">
-        <v>40</v>
-      </c>
-      <c r="F23" s="1">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>11</v>
@@ -1017,12 +1017,12 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>12</v>
@@ -1040,12 +1040,12 @@
         <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
         <v>13</v>
@@ -1063,12 +1063,12 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>14</v>
@@ -1086,12 +1086,12 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>15</v>
@@ -1109,12 +1109,12 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -1132,12 +1132,12 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -1155,12 +1155,12 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -1178,21 +1178,21 @@
         <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1">
         <v>40</v>
@@ -1201,21 +1201,21 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1">
         <v>40</v>
@@ -1224,21 +1224,21 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1">
         <v>40</v>
@@ -1247,12 +1247,12 @@
         <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -1270,12 +1270,12 @@
         <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>8</v>
@@ -1293,12 +1293,12 @@
         <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
@@ -1316,12 +1316,12 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1">
         <v>10</v>
@@ -1338,13 +1338,13 @@
       <c r="F38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" t="s">
-        <v>22</v>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1">
         <v>11</v>
@@ -1361,13 +1361,13 @@
       <c r="F39" s="1">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
-        <v>22</v>
+      <c r="G39" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
         <v>12</v>
@@ -1384,13 +1384,13 @@
       <c r="F40" s="1">
         <v>20</v>
       </c>
-      <c r="H40" t="s">
-        <v>22</v>
+      <c r="G40" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -1407,16 +1407,13 @@
       <c r="F41" s="1">
         <v>10</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -1434,12 +1431,12 @@
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -1457,12 +1454,12 @@
         <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -1479,16 +1476,13 @@
       <c r="F44" s="1">
         <v>10</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1">
         <v>5</v>
@@ -1506,12 +1500,12 @@
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1">
         <v>6</v>
@@ -1529,12 +1523,12 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1">
         <v>7</v>
@@ -1552,12 +1546,12 @@
         <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1">
         <v>8</v>
@@ -1575,12 +1569,12 @@
         <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
@@ -1598,12 +1592,12 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1">
         <v>10</v>
@@ -1621,12 +1615,12 @@
         <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1">
         <v>11</v>
@@ -1644,12 +1638,12 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1">
         <v>12</v>
@@ -1667,12 +1661,12 @@
         <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1">
         <v>13</v>
@@ -1690,12 +1684,12 @@
         <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1">
         <v>14</v>
@@ -1713,12 +1707,12 @@
         <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1">
         <v>15</v>
@@ -1736,12 +1730,12 @@
         <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -1759,12 +1753,12 @@
         <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
@@ -1782,12 +1776,12 @@
         <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
@@ -1805,12 +1799,12 @@
         <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -1828,12 +1822,12 @@
         <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1">
         <v>5</v>
@@ -1851,12 +1845,12 @@
         <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1">
         <v>6</v>
@@ -1874,12 +1868,12 @@
         <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1">
         <v>7</v>
@@ -1897,12 +1891,12 @@
         <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1">
         <v>8</v>
@@ -1920,12 +1914,12 @@
         <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1">
         <v>9</v>
@@ -1943,12 +1937,12 @@
         <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1">
         <v>10</v>
@@ -1966,12 +1960,12 @@
         <v>40</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1">
         <v>11</v>
@@ -1989,12 +1983,12 @@
         <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1">
         <v>12</v>
@@ -2012,12 +2006,12 @@
         <v>40</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1">
         <v>13</v>
@@ -2035,12 +2029,12 @@
         <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1">
         <v>14</v>
@@ -2058,12 +2052,12 @@
         <v>40</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1">
         <v>15</v>
@@ -2081,12 +2075,12 @@
         <v>40</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -2104,12 +2098,12 @@
         <v>40</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -2127,12 +2121,12 @@
         <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B73" s="1">
         <v>3</v>
@@ -2150,12 +2144,12 @@
         <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
@@ -2173,12 +2167,12 @@
         <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B75" s="1">
         <v>5</v>
@@ -2196,12 +2190,12 @@
         <v>40</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -2219,12 +2213,12 @@
         <v>40</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1">
         <v>7</v>
@@ -2242,12 +2236,12 @@
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1">
         <v>8</v>
@@ -2265,12 +2259,12 @@
         <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1">
         <v>9</v>
@@ -2288,12 +2282,12 @@
         <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1">
         <v>10</v>
@@ -2311,12 +2305,12 @@
         <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1">
         <v>11</v>
@@ -2334,12 +2328,12 @@
         <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1">
         <v>12</v>
@@ -2357,12 +2351,12 @@
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
         <v>13</v>
@@ -2380,12 +2374,12 @@
         <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1">
         <v>14</v>
@@ -2403,12 +2397,12 @@
         <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B85" s="1">
         <v>15</v>
@@ -2426,12 +2420,12 @@
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -2449,12 +2443,12 @@
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -2472,12 +2466,12 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
@@ -2495,12 +2489,12 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -2518,12 +2512,12 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B90" s="1">
         <v>5</v>
@@ -2541,12 +2535,12 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B91" s="1">
         <v>6</v>
@@ -2564,12 +2558,12 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1">
         <v>7</v>
@@ -2587,12 +2581,12 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B93" s="1">
         <v>8</v>
@@ -2610,12 +2604,12 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B94" s="1">
         <v>9</v>
@@ -2633,12 +2627,12 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B95" s="1">
         <v>10</v>
@@ -2656,12 +2650,12 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B96" s="1">
         <v>11</v>
@@ -2679,12 +2673,12 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B97" s="1">
         <v>12</v>
@@ -2702,12 +2696,12 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B98" s="1">
         <v>13</v>
@@ -2725,12 +2719,12 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B99" s="1">
         <v>14</v>
@@ -2748,12 +2742,12 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B100" s="1">
         <v>15</v>
@@ -2771,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/measurement_files/Fig5_6/Measurements details.xlsx
+++ b/measurement_files/Fig5_6/Measurements details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abedj/Desktop/voltage_profile_stability_testing/measurement_files/Fig5_6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abedj/Library/CloudStorage/OneDrive-UniversityofToronto/UofT/Research/Publications/Opentrons_paper/AMPERE_repo/measurement_files/Fig5_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF3E9FF-E6E4-3541-8D2E-1A0C74808D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB08D6E0-3CA8-6743-9A7F-DE90691197EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="2120" windowWidth="24400" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="19420" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>sample number</t>
   </si>
   <si>
-    <t>repeated</t>
-  </si>
-  <si>
     <t>Fig. 5b</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Ethanol concentration [v/v%]</t>
+  </si>
+  <si>
+    <t>repeat</t>
   </si>
 </sst>
 </file>
@@ -160,13 +160,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,24 +451,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -476,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -491,9 +495,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -502,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>40</v>
@@ -511,12 +515,12 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -525,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
@@ -534,12 +538,12 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -548,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -557,10 +561,10 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -580,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -603,10 +607,10 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -626,12 +630,12 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -640,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>40</v>
@@ -649,12 +653,12 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -663,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>40</v>
@@ -672,12 +676,12 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -686,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -695,10 +699,10 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -718,10 +722,10 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -741,10 +745,10 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -764,18 +768,18 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -784,21 +788,22 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -807,21 +812,22 @@
         <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>20</v>
@@ -830,13 +836,14 @@
         <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -844,22 +851,23 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -867,22 +875,23 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -890,91 +899,95 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1">
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -982,22 +995,23 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1005,22 +1019,23 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1028,22 +1043,23 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1">
         <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1051,22 +1067,23 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1074,22 +1091,23 @@
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1">
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1097,45 +1115,47 @@
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1">
-        <v>40</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1">
-        <v>40</v>
-      </c>
-      <c r="F29" s="1">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1143,10 +1163,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <v>40</v>
@@ -1155,10 +1175,11 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1166,10 +1187,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
         <v>40</v>
@@ -1178,21 +1199,22 @@
         <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
         <v>40</v>
@@ -1201,21 +1223,22 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1">
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
         <v>40</v>
@@ -1224,21 +1247,22 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>40</v>
@@ -1247,10 +1271,11 @@
         <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1258,10 +1283,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
         <v>40</v>
@@ -1270,10 +1295,11 @@
         <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1281,10 +1307,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>40</v>
@@ -1293,10 +1319,11 @@
         <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1304,10 +1331,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1">
         <v>40</v>
@@ -1316,33 +1343,35 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>30</v>
-      </c>
-      <c r="E38" s="1">
-        <v>40</v>
-      </c>
-      <c r="F38" s="1">
-        <v>20</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1350,10 +1379,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
         <v>40</v>
@@ -1361,11 +1390,12 @@
       <c r="F39" s="1">
         <v>20</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1373,10 +1403,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1">
         <v>40</v>
@@ -1384,356 +1414,372 @@
       <c r="F40" s="1">
         <v>20</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
       </c>
       <c r="F41" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1">
         <v>40</v>
       </c>
       <c r="F42" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E43" s="1">
         <v>40</v>
       </c>
       <c r="F43" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E44" s="1">
         <v>40</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E45" s="1">
         <v>40</v>
       </c>
       <c r="F45" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E46" s="1">
         <v>40</v>
       </c>
       <c r="F46" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E47" s="1">
         <v>40</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1">
         <v>40</v>
       </c>
       <c r="F48" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E49" s="1">
         <v>40</v>
       </c>
       <c r="F49" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E50" s="1">
         <v>40</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1">
         <v>40</v>
       </c>
       <c r="F51" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1">
         <v>40</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E53" s="1">
         <v>40</v>
       </c>
       <c r="F53" s="1">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1">
         <v>40</v>
       </c>
       <c r="F54" s="1">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E55" s="1">
         <v>40</v>
       </c>
       <c r="F55" s="1">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>20</v>
@@ -1750,13 +1796,13 @@
         <v>40</v>
       </c>
       <c r="F56" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1764,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
         <v>20</v>
@@ -1773,13 +1819,13 @@
         <v>40</v>
       </c>
       <c r="F57" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
         <v>20</v>
@@ -1796,13 +1842,13 @@
         <v>40</v>
       </c>
       <c r="F58" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>20</v>
@@ -1819,13 +1865,13 @@
         <v>40</v>
       </c>
       <c r="F59" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1833,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>20</v>
@@ -1842,13 +1888,13 @@
         <v>40</v>
       </c>
       <c r="F60" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>20</v>
@@ -1865,13 +1911,13 @@
         <v>40</v>
       </c>
       <c r="F61" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1879,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
         <v>20</v>
@@ -1888,13 +1934,13 @@
         <v>40</v>
       </c>
       <c r="F62" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -1902,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -1911,13 +1957,13 @@
         <v>40</v>
       </c>
       <c r="F63" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
         <v>20</v>
@@ -1934,7 +1980,7 @@
         <v>40</v>
       </c>
       <c r="F64" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H64" t="s">
         <v>19</v>
@@ -1948,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
         <v>20</v>
@@ -1957,10 +2003,10 @@
         <v>40</v>
       </c>
       <c r="F65" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1971,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
         <v>20</v>
@@ -1980,10 +2026,10 @@
         <v>40</v>
       </c>
       <c r="F66" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1994,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>20</v>
@@ -2003,10 +2049,10 @@
         <v>40</v>
       </c>
       <c r="F67" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2017,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1">
         <v>20</v>
@@ -2026,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="F68" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
         <v>19</v>
@@ -2040,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
         <v>20</v>
@@ -2049,7 +2095,7 @@
         <v>40</v>
       </c>
       <c r="F69" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
         <v>19</v>
@@ -2063,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="1">
         <v>20</v>
@@ -2072,7 +2118,7 @@
         <v>40</v>
       </c>
       <c r="F70" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
         <v>19</v>
@@ -2086,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
         <v>20</v>
@@ -2095,10 +2141,10 @@
         <v>40</v>
       </c>
       <c r="F71" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2109,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>20</v>
@@ -2118,10 +2164,10 @@
         <v>40</v>
       </c>
       <c r="F72" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2132,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>20</v>
@@ -2141,10 +2187,10 @@
         <v>40</v>
       </c>
       <c r="F73" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2155,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -2164,7 +2210,7 @@
         <v>40</v>
       </c>
       <c r="F74" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
         <v>19</v>
@@ -2178,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1">
         <v>20</v>
@@ -2187,7 +2233,7 @@
         <v>40</v>
       </c>
       <c r="F75" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
         <v>19</v>
@@ -2201,7 +2247,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
         <v>20</v>
@@ -2210,7 +2256,7 @@
         <v>40</v>
       </c>
       <c r="F76" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
         <v>19</v>
@@ -2224,19 +2270,19 @@
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>20</v>
       </c>
       <c r="E77" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2247,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>20</v>
       </c>
       <c r="E78" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F78" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2270,19 +2316,19 @@
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>20</v>
       </c>
       <c r="E79" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F79" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2293,19 +2339,19 @@
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>20</v>
       </c>
       <c r="E80" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F80" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2316,19 +2362,19 @@
         <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
         <v>20</v>
       </c>
       <c r="E81" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F81" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2339,19 +2385,19 @@
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
         <v>20</v>
       </c>
       <c r="E82" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F82" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2362,19 +2408,19 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>20</v>
       </c>
       <c r="E83" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F83" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -2385,19 +2431,19 @@
         <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>20</v>
       </c>
       <c r="E84" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F84" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2408,19 +2454,19 @@
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>20</v>
       </c>
       <c r="E85" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F85" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2443,7 +2489,7 @@
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -2466,7 +2512,7 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -2489,7 +2535,7 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -2512,7 +2558,7 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2535,7 +2581,7 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2558,7 +2604,7 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -2581,7 +2627,7 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -2604,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2627,7 +2673,7 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -2650,7 +2696,7 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -2673,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -2696,7 +2742,7 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -2719,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -2742,7 +2788,7 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -2765,7 +2811,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
